--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>ノーマル プラン</t>
   </si>
@@ -205,7 +205,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
